--- a/templete/group.xlsx
+++ b/templete/group.xlsx
@@ -3,14 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\GO\Bot\templete\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387CFBF4-4602-4BC4-90FD-2D429F48CF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="xi" sheetId="1" r:id="rId1"/>
@@ -940,8 +934,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,10 +953,16 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -984,7 +984,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -24094,9 +24094,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="true" ht="13.8" r="2" spans="1:5">
       <c r="A2">
         <v>2177120078</v>
       </c>
@@ -24127,7 +24127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="true" ht="13.8" r="3" spans="1:5">
       <c r="A3">
         <v>3180808826</v>
       </c>
@@ -24141,9 +24141,23 @@
         <v>0</v>
       </c>
     </row>
+    <row customHeight="true" ht="13.8" r="4">
+      <c r="A4">
+        <v>3343780376</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup r:id="rId1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/templete/group.xlsx
+++ b/templete/group.xlsx
@@ -24146,13 +24146,13 @@
         <v>3343780376</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>303</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
